--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar628\Downloads\RestAssured\APIFramework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar628\git\APIAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CAA75E-008F-4024-BB81-59996523DA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29275A1-D954-432B-80B0-7152A35C81FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{32BC33E9-849B-48E1-A34D-AB3E98FBBAD5}"/>
   </bookViews>
@@ -65,7 +65,7 @@
     <t>shoe park</t>
   </si>
   <si>
-    <t>shops</t>
+    <t>new shops</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
